--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -124,10 +124,10 @@
     <t>safety</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>hope</t>
@@ -1332,25 +1332,25 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6939655172413793</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L20">
         <v>161</v>
       </c>
       <c r="M20">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1436,25 +1436,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5987841945288754</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="L24">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M24">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1462,25 +1462,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5842105263157895</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L25">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="M25">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="10:17">
